--- a/1차_가공/연세대학교 미래캠퍼스 22년 1학기 1차 가공 완료.xlsx
+++ b/1차_가공/연세대학교 미래캠퍼스 22년 1학기 1차 가공 완료.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15314" uniqueCount="4233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15312" uniqueCount="4233">
   <si>
     <t>대학교명</t>
   </si>
@@ -12493,10 +12493,10 @@
     <t>백529(백327)</t>
   </si>
   <si>
-    <t>백121(의전103,104)</t>
-  </si>
-  <si>
-    <t>백121/의전103,104</t>
+    <t>백121(의전1034)</t>
+  </si>
+  <si>
+    <t>백121/의전1034</t>
   </si>
   <si>
     <t>백121(백529)</t>
@@ -13070,7 +13070,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1622"/>
+  <dimension ref="A1:L1621"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -71950,17 +71950,6 @@
         <v>3357</v>
       </c>
     </row>
-    <row r="1622" spans="1:9">
-      <c r="A1622" s="1">
-        <v>1620</v>
-      </c>
-      <c r="B1622" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1622" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/1차_가공/연세대학교 미래캠퍼스 22년 1학기 1차 가공 완료.xlsx
+++ b/1차_가공/연세대학교 미래캠퍼스 22년 1학기 1차 가공 완료.xlsx
@@ -10138,1543 +10138,1543 @@
     <t>전탐</t>
   </si>
   <si>
-    <t>월9</t>
-  </si>
-  <si>
-    <t>수9</t>
-  </si>
-  <si>
-    <t>수10</t>
-  </si>
-  <si>
-    <t>월10</t>
-  </si>
-  <si>
-    <t>수11</t>
-  </si>
-  <si>
-    <t>수4</t>
-  </si>
-  <si>
-    <t>월9(월10)</t>
-  </si>
-  <si>
-    <t>수9(수10)</t>
-  </si>
-  <si>
-    <t>금5,6</t>
-  </si>
-  <si>
-    <t>금7,8</t>
-  </si>
-  <si>
-    <t>금9,10</t>
-  </si>
-  <si>
-    <t>화10,11,수10,11</t>
-  </si>
-  <si>
-    <t>수3,4</t>
-  </si>
-  <si>
-    <t>화9,10</t>
-  </si>
-  <si>
-    <t>월3,4</t>
-  </si>
-  <si>
-    <t>화3,4</t>
-  </si>
-  <si>
-    <t>수7,8</t>
-  </si>
-  <si>
-    <t>화7,8</t>
-  </si>
-  <si>
-    <t>수2,3</t>
-  </si>
-  <si>
-    <t>목1,2</t>
-  </si>
-  <si>
-    <t>월7,8</t>
-  </si>
-  <si>
-    <t>화5,6</t>
-  </si>
-  <si>
-    <t>목3,4</t>
-  </si>
-  <si>
-    <t>월9,10</t>
-  </si>
-  <si>
-    <t>수9,10</t>
-  </si>
-  <si>
-    <t>월6,7</t>
-  </si>
-  <si>
-    <t>목5,6</t>
-  </si>
-  <si>
-    <t>화2,3</t>
-  </si>
-  <si>
-    <t>수5,6</t>
-  </si>
-  <si>
-    <t>목9,10</t>
-  </si>
-  <si>
-    <t>목7,8</t>
-  </si>
-  <si>
-    <t>월5,6</t>
-  </si>
-  <si>
-    <t>금5</t>
-  </si>
-  <si>
-    <t>금6</t>
-  </si>
-  <si>
-    <t>금7</t>
-  </si>
-  <si>
-    <t>금8</t>
-  </si>
-  <si>
-    <t>목9</t>
-  </si>
-  <si>
-    <t>금11,12</t>
-  </si>
-  <si>
-    <t>화11</t>
-  </si>
-  <si>
-    <t>목3</t>
-  </si>
-  <si>
-    <t>화5</t>
-  </si>
-  <si>
-    <t>화10</t>
-  </si>
-  <si>
-    <t>수12</t>
-  </si>
-  <si>
-    <t>화3</t>
-  </si>
-  <si>
-    <t>수1,2</t>
-  </si>
-  <si>
-    <t>화1,2</t>
-  </si>
-  <si>
-    <t>월6</t>
-  </si>
-  <si>
-    <t>금1,2,3,11,12,13</t>
-  </si>
-  <si>
-    <t>월10,11</t>
-  </si>
-  <si>
-    <t>목7</t>
-  </si>
-  <si>
-    <t>화5,6,7,8</t>
-  </si>
-  <si>
-    <t>금5,6,7</t>
-  </si>
-  <si>
-    <t>수8,9</t>
-  </si>
-  <si>
-    <t>수6,7</t>
-  </si>
-  <si>
-    <t>월1,2</t>
-  </si>
-  <si>
-    <t>월11</t>
-  </si>
-  <si>
-    <t>월12</t>
-  </si>
-  <si>
-    <t>화12</t>
-  </si>
-  <si>
-    <t>화13</t>
-  </si>
-  <si>
-    <t>월13</t>
-  </si>
-  <si>
-    <t>월11,12</t>
-  </si>
-  <si>
-    <t>화11,12</t>
-  </si>
-  <si>
-    <t>월1,3/월2</t>
-  </si>
-  <si>
-    <t>화1,3/화2</t>
-  </si>
-  <si>
-    <t>수1,3/수2</t>
-  </si>
-  <si>
-    <t>목1,3/목2</t>
-  </si>
-  <si>
-    <t>화6/화7,8</t>
-  </si>
-  <si>
-    <t>수6/수7,8</t>
-  </si>
-  <si>
-    <t>월6/월7,8</t>
-  </si>
-  <si>
-    <t>목6/목7,8</t>
-  </si>
-  <si>
-    <t>금4,5</t>
-  </si>
-  <si>
-    <t>월6,7,8,9</t>
-  </si>
-  <si>
-    <t>화1,2,3,4</t>
-  </si>
-  <si>
-    <t>목7,8,9,10</t>
-  </si>
-  <si>
-    <t>금1,2,3,4</t>
-  </si>
-  <si>
-    <t>화9,10,11,12</t>
-  </si>
-  <si>
-    <t>목12,13</t>
-  </si>
-  <si>
-    <t>화12,13</t>
-  </si>
-  <si>
-    <t>목10,11</t>
-  </si>
-  <si>
-    <t>화10,11</t>
-  </si>
-  <si>
-    <t>화14,15</t>
-  </si>
-  <si>
-    <t>목14,15</t>
-  </si>
-  <si>
-    <t>목1,2,3</t>
-  </si>
-  <si>
-    <t>목5,6,7,8</t>
-  </si>
-  <si>
-    <t>목6,7,8</t>
-  </si>
-  <si>
-    <t>월5,6,7,8</t>
-  </si>
-  <si>
-    <t>수5,6,7,8</t>
-  </si>
-  <si>
-    <t>수1,2(수4)</t>
-  </si>
-  <si>
-    <t>월2,3</t>
-  </si>
-  <si>
-    <t>금3,4</t>
-  </si>
-  <si>
-    <t>금1,2</t>
-  </si>
-  <si>
-    <t>화8,9</t>
-  </si>
-  <si>
-    <t>목6,7</t>
-  </si>
-  <si>
-    <t>목8,9,금5,6</t>
-  </si>
-  <si>
-    <t>목0,1,금0,1</t>
-  </si>
-  <si>
-    <t>화1,2,3</t>
-  </si>
-  <si>
-    <t>화5/토1,2</t>
-  </si>
-  <si>
-    <t>화6,7,8</t>
-  </si>
-  <si>
-    <t>화2,3,4</t>
-  </si>
-  <si>
-    <t>수6,7,8</t>
-  </si>
-  <si>
-    <t>금1,2,3</t>
-  </si>
-  <si>
-    <t>월7,수4,5</t>
-  </si>
-  <si>
-    <t>목5,6(금7,8)</t>
-  </si>
-  <si>
-    <t>금1,2(금3,4)</t>
-  </si>
-  <si>
-    <t>금5,6(금7,8)</t>
-  </si>
-  <si>
-    <t>목2,3,4</t>
-  </si>
-  <si>
-    <t>금2,3,4</t>
-  </si>
-  <si>
-    <t>수2,3,4</t>
-  </si>
-  <si>
-    <t>월1,2,3</t>
-  </si>
-  <si>
-    <t>화5,6,7</t>
-  </si>
-  <si>
-    <t>화7,8,9</t>
-  </si>
-  <si>
-    <t>금6,7,8</t>
-  </si>
-  <si>
-    <t>월6,7,8</t>
-  </si>
-  <si>
-    <t>월5,6,7</t>
-  </si>
-  <si>
-    <t>월2,3,4</t>
-  </si>
-  <si>
-    <t>수1,2,3</t>
-  </si>
-  <si>
-    <t>목5,6,7</t>
-  </si>
-  <si>
-    <t>수5,6,7</t>
-  </si>
-  <si>
-    <t>월7,8/수7</t>
-  </si>
-  <si>
-    <t>수1,2/목5</t>
-  </si>
-  <si>
-    <t>월5,화1,2</t>
-  </si>
-  <si>
-    <t>월4,5,6</t>
-  </si>
-  <si>
-    <t>수5/수6,7</t>
-  </si>
-  <si>
-    <t>수3,4,목5</t>
-  </si>
-  <si>
-    <t>토13,14,15</t>
-  </si>
-  <si>
-    <t>수1,2/수3</t>
-  </si>
-  <si>
-    <t>월3/수5,6(금5,6)</t>
-  </si>
-  <si>
-    <t>수5,6/목2(목3,4)</t>
-  </si>
-  <si>
-    <t>월5,6,7(월8)</t>
-  </si>
-  <si>
-    <t>화5,6,7(화8)</t>
-  </si>
-  <si>
-    <t>화1,2,3(화4)</t>
-  </si>
-  <si>
-    <t>월1,2,3(월4)</t>
-  </si>
-  <si>
-    <t>월6,금5,6(월5)</t>
-  </si>
-  <si>
-    <t>수5,6,금3(금4)</t>
-  </si>
-  <si>
-    <t>월5,6,수6(화8)</t>
-  </si>
-  <si>
-    <t>수7,8,9(수10)</t>
-  </si>
-  <si>
-    <t>월3,4(목1,2)</t>
-  </si>
-  <si>
-    <t>화6,8/화7</t>
-  </si>
-  <si>
-    <t>월5,6(수5,6)</t>
-  </si>
-  <si>
-    <t>수7,8(월3,4)</t>
-  </si>
-  <si>
-    <t>수1,2(금1,2)</t>
-  </si>
-  <si>
-    <t>목3,4(금3,4)</t>
-  </si>
-  <si>
-    <t>월7,8(목5,6)</t>
-  </si>
-  <si>
-    <t>화7,8(금5,6)</t>
-  </si>
-  <si>
-    <t>월10,화9,10(월11)</t>
-  </si>
-  <si>
-    <t>월7/화9,10(화11)</t>
-  </si>
-  <si>
-    <t>화2,3,수6</t>
-  </si>
-  <si>
-    <t>월5,목5,6</t>
-  </si>
-  <si>
-    <t>목4,5,6</t>
-  </si>
-  <si>
-    <t>화6,수4,5</t>
-  </si>
-  <si>
-    <t>목7,8,9</t>
-  </si>
-  <si>
-    <t>월5,6,화5</t>
-  </si>
-  <si>
-    <t>화2,3,목2</t>
-  </si>
-  <si>
-    <t>화7,8,수3</t>
-  </si>
-  <si>
-    <t>화6,수2,3</t>
-  </si>
-  <si>
-    <t>월3,4,수4</t>
-  </si>
-  <si>
-    <t>월8,수7,8</t>
-  </si>
-  <si>
-    <t>월6,화7,8</t>
-  </si>
-  <si>
-    <t>월5,화2,3</t>
-  </si>
-  <si>
-    <t>월7,수5,6</t>
-  </si>
-  <si>
-    <t>월2,3,수1</t>
-  </si>
-  <si>
-    <t>화5,목6,7</t>
-  </si>
-  <si>
-    <t>목1/목2,3</t>
-  </si>
-  <si>
-    <t>화6,7,목8</t>
-  </si>
-  <si>
-    <t>화8,목6,7</t>
-  </si>
-  <si>
-    <t>월6,7,수5</t>
-  </si>
-  <si>
-    <t>화6,7,수6</t>
-  </si>
-  <si>
-    <t>화5,수2,3</t>
-  </si>
-  <si>
-    <t>화3,목2,3</t>
-  </si>
-  <si>
-    <t>화2,수6,7</t>
-  </si>
-  <si>
-    <t>월6,수5,6</t>
-  </si>
-  <si>
-    <t>수1,2,목5</t>
-  </si>
-  <si>
-    <t>월5,수7,8</t>
-  </si>
-  <si>
-    <t>수1,2(수3,4)</t>
-  </si>
-  <si>
-    <t>월1,2(월3,4)</t>
-  </si>
-  <si>
-    <t>수5,6(수7,8)</t>
-  </si>
-  <si>
-    <t>화4/목-1,0</t>
-  </si>
-  <si>
-    <t>화2,3,목3</t>
-  </si>
-  <si>
-    <t>화10,11/목4</t>
-  </si>
-  <si>
-    <t>월5,6(월7,8)</t>
-  </si>
-  <si>
-    <t>목1,2(목3,4)</t>
-  </si>
-  <si>
-    <t>금6,7(금8,9,10,11)</t>
-  </si>
-  <si>
-    <t>목5,6(목7,8)</t>
-  </si>
-  <si>
-    <t>월6,7(월8,9)</t>
-  </si>
-  <si>
-    <t>금1,2(화10,11,금3,4)</t>
-  </si>
-  <si>
-    <t>화6,7(화8,9)</t>
-  </si>
-  <si>
-    <t>수6,7(수8,9)</t>
-  </si>
-  <si>
-    <t>화2,3(화4,5)</t>
-  </si>
-  <si>
-    <t>화1,2(화3,4)</t>
-  </si>
-  <si>
-    <t>화7,8,목7(목8)</t>
-  </si>
-  <si>
-    <t>화5,목3,4(화4)</t>
-  </si>
-  <si>
-    <t>월7,수7,8(월8)</t>
-  </si>
-  <si>
-    <t>화3,수5,6(화4)</t>
-  </si>
-  <si>
-    <t>화5,목5,6(화6)</t>
-  </si>
-  <si>
-    <t>월2,목3,4(월1)</t>
-  </si>
-  <si>
-    <t>화8,목1,2(화7)</t>
-  </si>
-  <si>
-    <t>수3,목7,8(수4)</t>
-  </si>
-  <si>
-    <t>월5,수1,2(월6)</t>
-  </si>
-  <si>
-    <t>화1,수1,2(화2)</t>
-  </si>
-  <si>
-    <t>월4,목1,2(월3)</t>
-  </si>
-  <si>
-    <t>수6,7,8(목3)</t>
-  </si>
-  <si>
-    <t>월7,8,화6(화7)</t>
-  </si>
-  <si>
-    <t>월5(수5,6,7,8)</t>
-  </si>
-  <si>
-    <t>월5(목5,6,7,8)</t>
-  </si>
-  <si>
-    <t>화2,3,목7(목8)</t>
-  </si>
-  <si>
-    <t>수1,2,3(월5)</t>
-  </si>
-  <si>
-    <t>화1,목1,2</t>
-  </si>
-  <si>
-    <t>화3(월5,6,7,8)</t>
-  </si>
-  <si>
-    <t>화3(월9,10,11,12)</t>
-  </si>
-  <si>
-    <t>월3,4,수5</t>
-  </si>
-  <si>
-    <t>수6,목5,6(화10)</t>
-  </si>
-  <si>
-    <t>월3,4,화6(화9)</t>
-  </si>
-  <si>
-    <t>월5,6,화1(월9)</t>
-  </si>
-  <si>
-    <t>화5,수4,5(수8)</t>
-  </si>
-  <si>
-    <t>월3,4,수6</t>
-  </si>
-  <si>
-    <t>월2,목7,8</t>
-  </si>
-  <si>
-    <t>화7,8/목6</t>
-  </si>
-  <si>
-    <t>화4,목1,2</t>
-  </si>
-  <si>
-    <t>화3,목3,4</t>
-  </si>
-  <si>
-    <t>월8,수2,3</t>
-  </si>
-  <si>
-    <t>금6(금7,8,9,10)</t>
-  </si>
-  <si>
-    <t>화9,10,11</t>
-  </si>
-  <si>
-    <t>화4(화5,6,7,8)</t>
-  </si>
-  <si>
-    <t>월6/화6,7(월4)</t>
-  </si>
-  <si>
-    <t>화1,2,목3(목4)</t>
-  </si>
-  <si>
-    <t>월1,수2,3</t>
-  </si>
-  <si>
-    <t>월2,3,수3</t>
-  </si>
-  <si>
-    <t>화6,7/목1</t>
-  </si>
-  <si>
-    <t>화7/수6,7(수8)</t>
-  </si>
-  <si>
-    <t>화7,8,수1</t>
-  </si>
-  <si>
-    <t>화2,3,수3</t>
-  </si>
-  <si>
-    <t>화5,6,수4</t>
-  </si>
-  <si>
-    <t>월6,7,8(월9)</t>
-  </si>
-  <si>
-    <t>화1,목2,3</t>
-  </si>
-  <si>
-    <t>월6,7,수3</t>
-  </si>
-  <si>
-    <t>월2,3,수2(월5)</t>
-  </si>
-  <si>
-    <t>화2,3(화4,목1)</t>
-  </si>
-  <si>
-    <t>화2,3,수5</t>
-  </si>
-  <si>
-    <t>화8,목2,3</t>
-  </si>
-  <si>
-    <t>월5,6,목1</t>
-  </si>
-  <si>
-    <t>월1,2,수5</t>
-  </si>
-  <si>
-    <t>화1,수1,2</t>
-  </si>
-  <si>
-    <t>화6,수6,7</t>
-  </si>
-  <si>
-    <t>금9,10,11,12,13,14</t>
-  </si>
-  <si>
-    <t>월7,8,화6</t>
-  </si>
-  <si>
-    <t>수7,8(목10,11)</t>
-  </si>
-  <si>
-    <t>화7,8,수6</t>
-  </si>
-  <si>
-    <t>월1,2,화1</t>
-  </si>
-  <si>
-    <t>화2,3,목6</t>
-  </si>
-  <si>
-    <t>월3,화2,3</t>
-  </si>
-  <si>
-    <t>수2,3,목6</t>
-  </si>
-  <si>
-    <t>목1,2,3,11,12,13</t>
-  </si>
-  <si>
-    <t>수1,2,3,11,12,13</t>
-  </si>
-  <si>
-    <t>화1,2,3,11,12,13</t>
-  </si>
-  <si>
-    <t>수8,9,목3,4</t>
-  </si>
-  <si>
-    <t>월8,9/수7</t>
-  </si>
-  <si>
-    <t>수7,8,9</t>
-  </si>
-  <si>
-    <t>화2/목2,3</t>
-  </si>
-  <si>
-    <t>화6,목6,7</t>
-  </si>
-  <si>
-    <t>화3,4,금3,4</t>
-  </si>
-  <si>
-    <t>월5,수6,7</t>
-  </si>
-  <si>
-    <t>월6,7/수6</t>
-  </si>
-  <si>
-    <t>화3,4/수6</t>
-  </si>
-  <si>
-    <t>월9/화5,6</t>
-  </si>
-  <si>
-    <t>월6,7/토2</t>
-  </si>
-  <si>
-    <t>월6,7,수1</t>
-  </si>
-  <si>
-    <t>목1,2/토3</t>
-  </si>
-  <si>
-    <t>화2,3/토6</t>
-  </si>
-  <si>
-    <t>화7,수3,4</t>
-  </si>
-  <si>
-    <t>월10,11,12</t>
-  </si>
-  <si>
-    <t>화8,9,금8,9</t>
-  </si>
-  <si>
-    <t>수8,목7,8</t>
-  </si>
-  <si>
-    <t>화4,5/목4</t>
-  </si>
-  <si>
-    <t>수2,3/토7</t>
-  </si>
-  <si>
-    <t>화2,3,수7</t>
-  </si>
-  <si>
-    <t>목10,11,12</t>
-  </si>
-  <si>
-    <t>수3/토4,5</t>
-  </si>
-  <si>
-    <t>월3,수2,3</t>
-  </si>
-  <si>
-    <t>화8,9,수8</t>
-  </si>
-  <si>
-    <t>화6,7/수7</t>
-  </si>
-  <si>
-    <t>화6,7,목5</t>
-  </si>
-  <si>
-    <t>월7,8,수6</t>
-  </si>
-  <si>
-    <t>월5,6/토8</t>
-  </si>
-  <si>
-    <t>월2,3,화1</t>
-  </si>
-  <si>
-    <t>월7,8/토1</t>
-  </si>
-  <si>
-    <t>월6,7,수8</t>
-  </si>
-  <si>
-    <t>월7,8,수5</t>
-  </si>
-  <si>
-    <t>월2,3,수2</t>
-  </si>
-  <si>
-    <t>수5,6,목3</t>
-  </si>
-  <si>
-    <t>월7/화5,6</t>
-  </si>
-  <si>
-    <t>월6/화7,8</t>
-  </si>
-  <si>
-    <t>금8,9,10</t>
-  </si>
-  <si>
-    <t>월11,목1,2</t>
-  </si>
-  <si>
-    <t>수6,7,목3</t>
-  </si>
-  <si>
-    <t>화3/수3,4</t>
-  </si>
-  <si>
-    <t>화6,7,수3</t>
-  </si>
-  <si>
-    <t>화5,6/목5</t>
-  </si>
-  <si>
-    <t>월1,2,수2</t>
-  </si>
-  <si>
-    <t>월7,8,9</t>
-  </si>
-  <si>
-    <t>화6,7,수8</t>
-  </si>
-  <si>
-    <t>화8/목2,3</t>
-  </si>
-  <si>
-    <t>화6,수5,6</t>
-  </si>
-  <si>
-    <t>월5,6,수4</t>
-  </si>
-  <si>
-    <t>월7,8,수7</t>
-  </si>
-  <si>
-    <t>월9,10,수8</t>
-  </si>
-  <si>
-    <t>화7,8,수9</t>
-  </si>
-  <si>
-    <t>월6,7,화1</t>
-  </si>
-  <si>
-    <t>월2,3,9</t>
-  </si>
-  <si>
-    <t>월5,화9,10</t>
-  </si>
-  <si>
-    <t>화5,6,목5</t>
-  </si>
-  <si>
-    <t>목8,9(금2,3)</t>
-  </si>
-  <si>
-    <t>화5,수1,2</t>
-  </si>
-  <si>
-    <t>수5,목2,3</t>
-  </si>
-  <si>
-    <t>토0,1,2,3,4,5</t>
-  </si>
-  <si>
-    <t>토6,7,8,9,10,11</t>
-  </si>
-  <si>
-    <t>화5,6,수2</t>
-  </si>
-  <si>
-    <t>화5,6(화7,8)</t>
-  </si>
-  <si>
-    <t>화1,2,4</t>
-  </si>
-  <si>
-    <t>수1,2,4</t>
-  </si>
-  <si>
-    <t>수10,11,12</t>
-  </si>
-  <si>
-    <t>월5,6,수2(수3)</t>
-  </si>
-  <si>
-    <t>화2,목2,3(화3)</t>
-  </si>
-  <si>
-    <t>수5,6(목8,9)</t>
-  </si>
-  <si>
-    <t>수7,8(수9,10)</t>
-  </si>
-  <si>
-    <t>화7,8,목5(목6)</t>
-  </si>
-  <si>
-    <t>화5,6(목7,8)</t>
-  </si>
-  <si>
-    <t>월7,8/수1</t>
-  </si>
-  <si>
-    <t>토1(토2,3,4,5)</t>
-  </si>
-  <si>
-    <t>목2,3(목4,5)</t>
-  </si>
-  <si>
-    <t>월3,화6,수1(화7)</t>
-  </si>
-  <si>
-    <t>목6,7(목8,9)</t>
-  </si>
-  <si>
-    <t>월7(화1,2,3,4)</t>
-  </si>
-  <si>
-    <t>월3,4,화6</t>
-  </si>
-  <si>
-    <t>화1,2,수7</t>
-  </si>
-  <si>
-    <t>수3,목2,3</t>
-  </si>
-  <si>
-    <t>화8(금7,8,9,10)</t>
-  </si>
-  <si>
-    <t>월9,10,11</t>
-  </si>
-  <si>
-    <t>수1,2,목3</t>
-  </si>
-  <si>
-    <t>화1,2,목1(목2)</t>
-  </si>
-  <si>
-    <t>수10(수11,목9,10,11)</t>
-  </si>
-  <si>
-    <t>화5,목5,6</t>
-  </si>
-  <si>
-    <t>월3,수3,4(월4)</t>
-  </si>
-  <si>
-    <t>화7,8,9(수7)</t>
-  </si>
-  <si>
-    <t>월1,2,수2(수3)</t>
-  </si>
-  <si>
-    <t>월6,7,수5(수6)</t>
-  </si>
-  <si>
-    <t>목5,6,7(목8)</t>
-  </si>
-  <si>
-    <t>금6,7,8(금9)</t>
-  </si>
-  <si>
-    <t>화9(금1,2,3,4)</t>
-  </si>
-  <si>
-    <t>월1,2,수1(수2)</t>
-  </si>
-  <si>
-    <t>월5,6,수5(수6)</t>
-  </si>
-  <si>
-    <t>수4,목5,6</t>
-  </si>
-  <si>
-    <t>수7(수8,9,10,11)</t>
-  </si>
-  <si>
-    <t>목5(목6,7,8,9)</t>
-  </si>
-  <si>
-    <t>금5/금6,7,8,9</t>
-  </si>
-  <si>
-    <t>화5(월1,2,3,4)</t>
-  </si>
-  <si>
-    <t>수6(목7,8,9,10)</t>
-  </si>
-  <si>
-    <t>월6,7/화0</t>
-  </si>
-  <si>
-    <t>화8,9/수8</t>
-  </si>
-  <si>
-    <t>월8,화2,3(화4)</t>
-  </si>
-  <si>
-    <t>목2,금2,3(목1)</t>
-  </si>
-  <si>
-    <t>수5,목3,4</t>
-  </si>
-  <si>
-    <t>토1,2,3</t>
-  </si>
-  <si>
-    <t>월2,3,수3(수4)</t>
-  </si>
-  <si>
-    <t>월8,9,수2</t>
-  </si>
-  <si>
-    <t>수7,목5,6</t>
-  </si>
-  <si>
-    <t>월7/화6,7(화8)</t>
-  </si>
-  <si>
-    <t>화5,수5,6</t>
-  </si>
-  <si>
-    <t>목13,14,15</t>
-  </si>
-  <si>
-    <t>화13,14,15</t>
-  </si>
-  <si>
-    <t>화10,11,12</t>
-  </si>
-  <si>
-    <t>월4,5,화4</t>
-  </si>
-  <si>
-    <t>화2,3/수5</t>
-  </si>
-  <si>
-    <t>월2,화2,3</t>
-  </si>
-  <si>
-    <t>월6,7,화8</t>
-  </si>
-  <si>
-    <t>월5,화6,7</t>
-  </si>
-  <si>
-    <t>수6,7,목5</t>
-  </si>
-  <si>
-    <t>수5,목6,7</t>
-  </si>
-  <si>
-    <t>월6,7,8,화6,7,8</t>
-  </si>
-  <si>
-    <t>월8,9,화7</t>
-  </si>
-  <si>
-    <t>월1/월2,3</t>
-  </si>
-  <si>
-    <t>화1/화2,3</t>
-  </si>
-  <si>
-    <t>월2,3,화5</t>
-  </si>
-  <si>
-    <t>화5,6,수1</t>
-  </si>
-  <si>
-    <t>목1,2,3,4</t>
-  </si>
-  <si>
-    <t>화5,목7,8</t>
-  </si>
-  <si>
-    <t>수5,6,금2</t>
-  </si>
-  <si>
-    <t>수7,8,금1</t>
-  </si>
-  <si>
-    <t>월3,4,목1(목2)</t>
-  </si>
-  <si>
-    <t>월1,2,금1(금2)</t>
-  </si>
-  <si>
-    <t>수1,2,금7(금8)</t>
-  </si>
-  <si>
-    <t>화5,6,수7(수8)</t>
-  </si>
-  <si>
-    <t>화5,6,목9(목10)</t>
-  </si>
-  <si>
-    <t>화3,4,수5(수6)</t>
-  </si>
-  <si>
-    <t>월3,4,목3(목4)</t>
-  </si>
-  <si>
-    <t>수5,목5,6(수6)</t>
-  </si>
-  <si>
-    <t>월1,2,화1(화2)</t>
-  </si>
-  <si>
-    <t>월5,6,화5(화6)</t>
-  </si>
-  <si>
-    <t>화3,4,목1(목2)</t>
-  </si>
-  <si>
-    <t>화5,수3,4(화6)</t>
-  </si>
-  <si>
-    <t>화1,2,수7(수8)</t>
-  </si>
-  <si>
-    <t>화7,목5,6(화8)</t>
-  </si>
-  <si>
-    <t>월5,6,목7(목8)</t>
-  </si>
-  <si>
-    <t>화3,4,목3(목4)</t>
-  </si>
-  <si>
-    <t>월6,7,화3(화4)</t>
-  </si>
-  <si>
-    <t>월8,9,목5</t>
-  </si>
-  <si>
-    <t>화1,2,수1</t>
-  </si>
-  <si>
-    <t>월2,3,수6</t>
-  </si>
-  <si>
-    <t>수7,목6,7(수8)</t>
-  </si>
-  <si>
-    <t>월3,화3,4(월4)</t>
-  </si>
-  <si>
-    <t>월7,8,화7(화8)</t>
-  </si>
-  <si>
-    <t>월1,2/화0(화2)</t>
-  </si>
-  <si>
-    <t>월2/화2,3(화4)</t>
-  </si>
-  <si>
-    <t>화1,금1,2(금3)</t>
-  </si>
-  <si>
-    <t>화5,6/목1</t>
-  </si>
-  <si>
-    <t>월6/화7,8(월5)</t>
-  </si>
-  <si>
-    <t>월8,9/수8</t>
-  </si>
-  <si>
-    <t>화2,3,목9</t>
-  </si>
-  <si>
-    <t>월5,수5,6</t>
-  </si>
-  <si>
-    <t>월2,3,화9</t>
-  </si>
-  <si>
-    <t>월2,3,목5</t>
-  </si>
-  <si>
-    <t>월1,2,3,11,12,13</t>
-  </si>
-  <si>
-    <t>금6,7/토0</t>
-  </si>
-  <si>
-    <t>월0/목6,7</t>
-  </si>
-  <si>
-    <t>월-1/목3,4</t>
-  </si>
-  <si>
-    <t>금3,4/토-1</t>
-  </si>
-  <si>
-    <t>월3,4,목3</t>
-  </si>
-  <si>
-    <t>월7,8,화5</t>
-  </si>
-  <si>
-    <t>월3,4(화5,6)</t>
-  </si>
-  <si>
-    <t>화5,6(목1,2)</t>
-  </si>
-  <si>
-    <t>화5,6(목3,4)</t>
-  </si>
-  <si>
-    <t>월5,6,수1</t>
-  </si>
-  <si>
-    <t>화5,6,수4/수4</t>
-  </si>
-  <si>
-    <t>화7,8,목3</t>
-  </si>
-  <si>
-    <t>수5,6,금1</t>
-  </si>
-  <si>
-    <t>화1,2,목2</t>
-  </si>
-  <si>
-    <t>화3,4/목3</t>
-  </si>
-  <si>
-    <t>화1,2(금3,4)</t>
-  </si>
-  <si>
-    <t>월3,4(수7,8)</t>
-  </si>
-  <si>
-    <t>월1,2(화7,8)</t>
-  </si>
-  <si>
-    <t>목1,2,금1</t>
-  </si>
-  <si>
-    <t>수3,4,금4</t>
-  </si>
-  <si>
-    <t>월1,2,목3</t>
-  </si>
-  <si>
-    <t>월1,2,수1</t>
-  </si>
-  <si>
-    <t>월7,8,수7(수8)</t>
-  </si>
-  <si>
-    <t>월7,8(목7,8)</t>
-  </si>
-  <si>
-    <t>목7,8(월5,6)</t>
-  </si>
-  <si>
-    <t>화1,2(수7,8)</t>
-  </si>
-  <si>
-    <t>화1,2(수3,4)</t>
-  </si>
-  <si>
-    <t>목3/목4(금1,2)</t>
-  </si>
-  <si>
-    <t>화7/화8(금3,4)</t>
-  </si>
-  <si>
-    <t>화5,6,목6</t>
-  </si>
-  <si>
-    <t>화7,8,목3(목4)</t>
-  </si>
-  <si>
-    <t>월7,8(금3,4)</t>
-  </si>
-  <si>
-    <t>수3,4(월5,6)</t>
-  </si>
-  <si>
-    <t>목7,8(수7,8)</t>
-  </si>
-  <si>
-    <t>월5,화5,6(월6)</t>
-  </si>
-  <si>
-    <t>수7,8(목7,8)</t>
-  </si>
-  <si>
-    <t>화7,8(수5,6)</t>
-  </si>
-  <si>
-    <t>월1,2(화1,2)</t>
-  </si>
-  <si>
-    <t>화7,8,목2(목1)</t>
-  </si>
-  <si>
-    <t>월5,6(수3,4)</t>
-  </si>
-  <si>
-    <t>목5,6(월1,2)</t>
-  </si>
-  <si>
-    <t>목3,4,금2</t>
-  </si>
-  <si>
-    <t>월7,8,수3(수4)</t>
-  </si>
-  <si>
-    <t>월5,6(화1,2)</t>
-  </si>
-  <si>
-    <t>화7,8(목1,2)</t>
-  </si>
-  <si>
-    <t>수5,6(목5,6)</t>
-  </si>
-  <si>
-    <t>수7,8(화3,4)</t>
-  </si>
-  <si>
-    <t>금5,6,7(금8)</t>
-  </si>
-  <si>
-    <t>금1,2,3(금4)</t>
-  </si>
-  <si>
-    <t>수8,금1,2(수7)</t>
-  </si>
-  <si>
-    <t>수5,금3,4(수6)</t>
-  </si>
-  <si>
-    <t>화5,6,목7(목8)</t>
-  </si>
-  <si>
-    <t>수5,6(목3,4)</t>
-  </si>
-  <si>
-    <t>수7,8(화1,2)</t>
-  </si>
-  <si>
-    <t>화1,2(목1,2)</t>
-  </si>
-  <si>
-    <t>화3,4(목3,4)</t>
-  </si>
-  <si>
-    <t>월1,2(수1,2)</t>
-  </si>
-  <si>
-    <t>수3,4(월3,4)</t>
-  </si>
-  <si>
-    <t>화3,목2,3(목1)</t>
-  </si>
-  <si>
-    <t>월3,4,수3</t>
-  </si>
-  <si>
-    <t>월5,6,수3</t>
-  </si>
-  <si>
-    <t>화3,목7,8(화4)</t>
-  </si>
-  <si>
-    <t>목1,2(금1,2)</t>
-  </si>
-  <si>
-    <t>수7,8(목3,4)</t>
-  </si>
-  <si>
-    <t>월7,8(화5,6)</t>
-  </si>
-  <si>
-    <t>화3,4(금5,6)</t>
-  </si>
-  <si>
-    <t>화3/화4(월7,8)</t>
-  </si>
-  <si>
-    <t>화1,2(금1,2)</t>
-  </si>
-  <si>
-    <t>목3,4(수5,6)</t>
-  </si>
-  <si>
-    <t>수1,2(월7,8)</t>
-  </si>
-  <si>
-    <t>수7,8(월1,2)</t>
-  </si>
-  <si>
-    <t>화3,4(수1,2)</t>
-  </si>
-  <si>
-    <t>월3/월4(화7,8)</t>
-  </si>
-  <si>
-    <t>목5,6(수1,2)</t>
-  </si>
-  <si>
-    <t>화3,4(월3,4)</t>
-  </si>
-  <si>
-    <t>월3,4,수1</t>
-  </si>
-  <si>
-    <t>수7,8(화7,8)</t>
-  </si>
-  <si>
-    <t>화8,9,10</t>
-  </si>
-  <si>
-    <t>화5,6(금1,2)</t>
-  </si>
-  <si>
-    <t>월3,4,목2</t>
-  </si>
-  <si>
-    <t>월7,8(금7,8)</t>
-  </si>
-  <si>
-    <t>월5,6,화9</t>
-  </si>
-  <si>
-    <t>화1,2,3,4/화1,2,3,4</t>
-  </si>
-  <si>
-    <t>월5,6,7,8/월5,6,7,8</t>
-  </si>
-  <si>
-    <t>목3,4/목5,6</t>
-  </si>
-  <si>
-    <t>월7,화1,2(월8)</t>
-  </si>
-  <si>
-    <t>화5/수2,3</t>
-  </si>
-  <si>
-    <t>월1,2/수2</t>
-  </si>
-  <si>
-    <t>화1,2(화3,4(화3,4(화6,7,8,9,10)</t>
-  </si>
-  <si>
-    <t>금1,2,3,4/금5,6,7,8</t>
-  </si>
-  <si>
-    <t>월1,2,목1,2</t>
-  </si>
-  <si>
-    <t>화1,2,3,4,5,6,7,8,수1,2,3</t>
+    <t>월,9</t>
+  </si>
+  <si>
+    <t>수,9</t>
+  </si>
+  <si>
+    <t>수,1,0</t>
+  </si>
+  <si>
+    <t>월,1,0</t>
+  </si>
+  <si>
+    <t>수,1,1</t>
+  </si>
+  <si>
+    <t>수,4</t>
+  </si>
+  <si>
+    <t>월,9,(,월,1,0,)</t>
+  </si>
+  <si>
+    <t>수,9,(,수,1,0,)</t>
+  </si>
+  <si>
+    <t>금,5,,,6</t>
+  </si>
+  <si>
+    <t>금,7,,,8</t>
+  </si>
+  <si>
+    <t>금,9,,,1,0</t>
+  </si>
+  <si>
+    <t>화,1,0,,,1,1,,,수,1,0,,,1,1</t>
+  </si>
+  <si>
+    <t>수,3,,,4</t>
+  </si>
+  <si>
+    <t>화,9,,,1,0</t>
+  </si>
+  <si>
+    <t>월,3,,,4</t>
+  </si>
+  <si>
+    <t>화,3,,,4</t>
+  </si>
+  <si>
+    <t>수,7,,,8</t>
+  </si>
+  <si>
+    <t>화,7,,,8</t>
+  </si>
+  <si>
+    <t>수,2,,,3</t>
+  </si>
+  <si>
+    <t>목,1,,,2</t>
+  </si>
+  <si>
+    <t>월,7,,,8</t>
+  </si>
+  <si>
+    <t>화,5,,,6</t>
+  </si>
+  <si>
+    <t>목,3,,,4</t>
+  </si>
+  <si>
+    <t>월,9,,,1,0</t>
+  </si>
+  <si>
+    <t>수,9,,,1,0</t>
+  </si>
+  <si>
+    <t>월,6,,,7</t>
+  </si>
+  <si>
+    <t>목,5,,,6</t>
+  </si>
+  <si>
+    <t>화,2,,,3</t>
+  </si>
+  <si>
+    <t>수,5,,,6</t>
+  </si>
+  <si>
+    <t>목,9,,,1,0</t>
+  </si>
+  <si>
+    <t>목,7,,,8</t>
+  </si>
+  <si>
+    <t>월,5,,,6</t>
+  </si>
+  <si>
+    <t>금,5</t>
+  </si>
+  <si>
+    <t>금,6</t>
+  </si>
+  <si>
+    <t>금,7</t>
+  </si>
+  <si>
+    <t>금,8</t>
+  </si>
+  <si>
+    <t>목,9</t>
+  </si>
+  <si>
+    <t>금,1,1,,,1,2</t>
+  </si>
+  <si>
+    <t>화,1,1</t>
+  </si>
+  <si>
+    <t>목,3</t>
+  </si>
+  <si>
+    <t>화,5</t>
+  </si>
+  <si>
+    <t>화,1,0</t>
+  </si>
+  <si>
+    <t>수,1,2</t>
+  </si>
+  <si>
+    <t>화,3</t>
+  </si>
+  <si>
+    <t>수,1,,,2</t>
+  </si>
+  <si>
+    <t>화,1,,,2</t>
+  </si>
+  <si>
+    <t>월,6</t>
+  </si>
+  <si>
+    <t>금,1,,,2,,,3,,,1,1,,,1,2,,,1,3</t>
+  </si>
+  <si>
+    <t>월,1,0,,,1,1</t>
+  </si>
+  <si>
+    <t>목,7</t>
+  </si>
+  <si>
+    <t>화,5,,,6,,,7,,,8</t>
+  </si>
+  <si>
+    <t>금,5,,,6,,,7</t>
+  </si>
+  <si>
+    <t>수,8,,,9</t>
+  </si>
+  <si>
+    <t>수,6,,,7</t>
+  </si>
+  <si>
+    <t>월,1,,,2</t>
+  </si>
+  <si>
+    <t>월,1,1</t>
+  </si>
+  <si>
+    <t>월,1,2</t>
+  </si>
+  <si>
+    <t>화,1,2</t>
+  </si>
+  <si>
+    <t>화,1,3</t>
+  </si>
+  <si>
+    <t>월,1,3</t>
+  </si>
+  <si>
+    <t>월,1,1,,,1,2</t>
+  </si>
+  <si>
+    <t>화,1,1,,,1,2</t>
+  </si>
+  <si>
+    <t>월,1,,,3,/,월,2</t>
+  </si>
+  <si>
+    <t>화,1,,,3,/,화,2</t>
+  </si>
+  <si>
+    <t>수,1,,,3,/,수,2</t>
+  </si>
+  <si>
+    <t>목,1,,,3,/,목,2</t>
+  </si>
+  <si>
+    <t>화,6,/,화,7,,,8</t>
+  </si>
+  <si>
+    <t>수,6,/,수,7,,,8</t>
+  </si>
+  <si>
+    <t>월,6,/,월,7,,,8</t>
+  </si>
+  <si>
+    <t>목,6,/,목,7,,,8</t>
+  </si>
+  <si>
+    <t>금,4,,,5</t>
+  </si>
+  <si>
+    <t>월,6,,,7,,,8,,,9</t>
+  </si>
+  <si>
+    <t>화,1,,,2,,,3,,,4</t>
+  </si>
+  <si>
+    <t>목,7,,,8,,,9,,,1,0</t>
+  </si>
+  <si>
+    <t>금,1,,,2,,,3,,,4</t>
+  </si>
+  <si>
+    <t>화,9,,,1,0,,,1,1,,,1,2</t>
+  </si>
+  <si>
+    <t>목,1,2,,,1,3</t>
+  </si>
+  <si>
+    <t>화,1,2,,,1,3</t>
+  </si>
+  <si>
+    <t>목,1,0,,,1,1</t>
+  </si>
+  <si>
+    <t>화,1,0,,,1,1</t>
+  </si>
+  <si>
+    <t>화,1,4,,,1,5</t>
+  </si>
+  <si>
+    <t>목,1,4,,,1,5</t>
+  </si>
+  <si>
+    <t>목,1,,,2,,,3</t>
+  </si>
+  <si>
+    <t>목,5,,,6,,,7,,,8</t>
+  </si>
+  <si>
+    <t>목,6,,,7,,,8</t>
+  </si>
+  <si>
+    <t>월,5,,,6,,,7,,,8</t>
+  </si>
+  <si>
+    <t>수,5,,,6,,,7,,,8</t>
+  </si>
+  <si>
+    <t>수,1,,,2,(,수,4,)</t>
+  </si>
+  <si>
+    <t>월,2,,,3</t>
+  </si>
+  <si>
+    <t>금,3,,,4</t>
+  </si>
+  <si>
+    <t>금,1,,,2</t>
+  </si>
+  <si>
+    <t>화,8,,,9</t>
+  </si>
+  <si>
+    <t>목,6,,,7</t>
+  </si>
+  <si>
+    <t>목,8,,,9,,,금,5,,,6</t>
+  </si>
+  <si>
+    <t>목,0,,,1,,,금,0,,,1</t>
+  </si>
+  <si>
+    <t>화,1,,,2,,,3</t>
+  </si>
+  <si>
+    <t>화,5,/,토,1,,,2</t>
+  </si>
+  <si>
+    <t>화,6,,,7,,,8</t>
+  </si>
+  <si>
+    <t>화,2,,,3,,,4</t>
+  </si>
+  <si>
+    <t>수,6,,,7,,,8</t>
+  </si>
+  <si>
+    <t>금,1,,,2,,,3</t>
+  </si>
+  <si>
+    <t>월,7,,,수,4,,,5</t>
+  </si>
+  <si>
+    <t>목,5,,,6,(,금,7,,,8,)</t>
+  </si>
+  <si>
+    <t>금,1,,,2,(,금,3,,,4,)</t>
+  </si>
+  <si>
+    <t>금,5,,,6,(,금,7,,,8,)</t>
+  </si>
+  <si>
+    <t>목,2,,,3,,,4</t>
+  </si>
+  <si>
+    <t>금,2,,,3,,,4</t>
+  </si>
+  <si>
+    <t>수,2,,,3,,,4</t>
+  </si>
+  <si>
+    <t>월,1,,,2,,,3</t>
+  </si>
+  <si>
+    <t>화,5,,,6,,,7</t>
+  </si>
+  <si>
+    <t>화,7,,,8,,,9</t>
+  </si>
+  <si>
+    <t>금,6,,,7,,,8</t>
+  </si>
+  <si>
+    <t>월,6,,,7,,,8</t>
+  </si>
+  <si>
+    <t>월,5,,,6,,,7</t>
+  </si>
+  <si>
+    <t>월,2,,,3,,,4</t>
+  </si>
+  <si>
+    <t>수,1,,,2,,,3</t>
+  </si>
+  <si>
+    <t>목,5,,,6,,,7</t>
+  </si>
+  <si>
+    <t>수,5,,,6,,,7</t>
+  </si>
+  <si>
+    <t>월,7,,,8,/,수,7</t>
+  </si>
+  <si>
+    <t>수,1,,,2,/,목,5</t>
+  </si>
+  <si>
+    <t>월,5,,,화,1,,,2</t>
+  </si>
+  <si>
+    <t>월,4,,,5,,,6</t>
+  </si>
+  <si>
+    <t>수,5,/,수,6,,,7</t>
+  </si>
+  <si>
+    <t>수,3,,,4,,,목,5</t>
+  </si>
+  <si>
+    <t>토,1,3,,,1,4,,,1,5</t>
+  </si>
+  <si>
+    <t>수,1,,,2,/,수,3</t>
+  </si>
+  <si>
+    <t>월,3,/,수,5,,,6,(,금,5,,,6,)</t>
+  </si>
+  <si>
+    <t>수,5,,,6,/,목,2,(,목,3,,,4,)</t>
+  </si>
+  <si>
+    <t>월,5,,,6,,,7,(,월,8,)</t>
+  </si>
+  <si>
+    <t>화,5,,,6,,,7,(,화,8,)</t>
+  </si>
+  <si>
+    <t>화,1,,,2,,,3,(,화,4,)</t>
+  </si>
+  <si>
+    <t>월,1,,,2,,,3,(,월,4,)</t>
+  </si>
+  <si>
+    <t>월,6,,,금,5,,,6,(,월,5,)</t>
+  </si>
+  <si>
+    <t>수,5,,,6,,,금,3,(,금,4,)</t>
+  </si>
+  <si>
+    <t>월,5,,,6,,,수,6,(,화,8,)</t>
+  </si>
+  <si>
+    <t>수,7,,,8,,,9,(,수,1,0,)</t>
+  </si>
+  <si>
+    <t>월,3,,,4,(,목,1,,,2,)</t>
+  </si>
+  <si>
+    <t>화,6,,,8,/,화,7</t>
+  </si>
+  <si>
+    <t>월,5,,,6,(,수,5,,,6,)</t>
+  </si>
+  <si>
+    <t>수,7,,,8,(,월,3,,,4,)</t>
+  </si>
+  <si>
+    <t>수,1,,,2,(,금,1,,,2,)</t>
+  </si>
+  <si>
+    <t>목,3,,,4,(,금,3,,,4,)</t>
+  </si>
+  <si>
+    <t>월,7,,,8,(,목,5,,,6,)</t>
+  </si>
+  <si>
+    <t>화,7,,,8,(,금,5,,,6,)</t>
+  </si>
+  <si>
+    <t>월,1,0,,,화,9,,,1,0,(,월,1,1,)</t>
+  </si>
+  <si>
+    <t>월,7,/,화,9,,,1,0,(,화,1,1,)</t>
+  </si>
+  <si>
+    <t>화,2,,,3,,,수,6</t>
+  </si>
+  <si>
+    <t>월,5,,,목,5,,,6</t>
+  </si>
+  <si>
+    <t>목,4,,,5,,,6</t>
+  </si>
+  <si>
+    <t>화,6,,,수,4,,,5</t>
+  </si>
+  <si>
+    <t>목,7,,,8,,,9</t>
+  </si>
+  <si>
+    <t>월,5,,,6,,,화,5</t>
+  </si>
+  <si>
+    <t>화,2,,,3,,,목,2</t>
+  </si>
+  <si>
+    <t>화,7,,,8,,,수,3</t>
+  </si>
+  <si>
+    <t>화,6,,,수,2,,,3</t>
+  </si>
+  <si>
+    <t>월,3,,,4,,,수,4</t>
+  </si>
+  <si>
+    <t>월,8,,,수,7,,,8</t>
+  </si>
+  <si>
+    <t>월,6,,,화,7,,,8</t>
+  </si>
+  <si>
+    <t>월,5,,,화,2,,,3</t>
+  </si>
+  <si>
+    <t>월,7,,,수,5,,,6</t>
+  </si>
+  <si>
+    <t>월,2,,,3,,,수,1</t>
+  </si>
+  <si>
+    <t>화,5,,,목,6,,,7</t>
+  </si>
+  <si>
+    <t>목,1,/,목,2,,,3</t>
+  </si>
+  <si>
+    <t>화,6,,,7,,,목,8</t>
+  </si>
+  <si>
+    <t>화,8,,,목,6,,,7</t>
+  </si>
+  <si>
+    <t>월,6,,,7,,,수,5</t>
+  </si>
+  <si>
+    <t>화,6,,,7,,,수,6</t>
+  </si>
+  <si>
+    <t>화,5,,,수,2,,,3</t>
+  </si>
+  <si>
+    <t>화,3,,,목,2,,,3</t>
+  </si>
+  <si>
+    <t>화,2,,,수,6,,,7</t>
+  </si>
+  <si>
+    <t>월,6,,,수,5,,,6</t>
+  </si>
+  <si>
+    <t>수,1,,,2,,,목,5</t>
+  </si>
+  <si>
+    <t>월,5,,,수,7,,,8</t>
+  </si>
+  <si>
+    <t>수,1,,,2,(,수,3,,,4,)</t>
+  </si>
+  <si>
+    <t>월,1,,,2,(,월,3,,,4,)</t>
+  </si>
+  <si>
+    <t>수,5,,,6,(,수,7,,,8,)</t>
+  </si>
+  <si>
+    <t>화,4,/,목,-,1,,,0</t>
+  </si>
+  <si>
+    <t>화,2,,,3,,,목,3</t>
+  </si>
+  <si>
+    <t>화,1,0,,,1,1,/,목,4</t>
+  </si>
+  <si>
+    <t>월,5,,,6,(,월,7,,,8,)</t>
+  </si>
+  <si>
+    <t>목,1,,,2,(,목,3,,,4,)</t>
+  </si>
+  <si>
+    <t>금,6,,,7,(,금,8,,,9,,,1,0,,,1,1,)</t>
+  </si>
+  <si>
+    <t>목,5,,,6,(,목,7,,,8,)</t>
+  </si>
+  <si>
+    <t>월,6,,,7,(,월,8,,,9,)</t>
+  </si>
+  <si>
+    <t>금,1,,,2,(,화,1,0,,,1,1,,,금,3,,,4,)</t>
+  </si>
+  <si>
+    <t>화,6,,,7,(,화,8,,,9,)</t>
+  </si>
+  <si>
+    <t>수,6,,,7,(,수,8,,,9,)</t>
+  </si>
+  <si>
+    <t>화,2,,,3,(,화,4,,,5,)</t>
+  </si>
+  <si>
+    <t>화,1,,,2,(,화,3,,,4,)</t>
+  </si>
+  <si>
+    <t>화,7,,,8,,,목,7,(,목,8,)</t>
+  </si>
+  <si>
+    <t>화,5,,,목,3,,,4,(,화,4,)</t>
+  </si>
+  <si>
+    <t>월,7,,,수,7,,,8,(,월,8,)</t>
+  </si>
+  <si>
+    <t>화,3,,,수,5,,,6,(,화,4,)</t>
+  </si>
+  <si>
+    <t>화,5,,,목,5,,,6,(,화,6,)</t>
+  </si>
+  <si>
+    <t>월,2,,,목,3,,,4,(,월,1,)</t>
+  </si>
+  <si>
+    <t>화,8,,,목,1,,,2,(,화,7,)</t>
+  </si>
+  <si>
+    <t>수,3,,,목,7,,,8,(,수,4,)</t>
+  </si>
+  <si>
+    <t>월,5,,,수,1,,,2,(,월,6,)</t>
+  </si>
+  <si>
+    <t>화,1,,,수,1,,,2,(,화,2,)</t>
+  </si>
+  <si>
+    <t>월,4,,,목,1,,,2,(,월,3,)</t>
+  </si>
+  <si>
+    <t>수,6,,,7,,,8,(,목,3,)</t>
+  </si>
+  <si>
+    <t>월,7,,,8,,,화,6,(,화,7,)</t>
+  </si>
+  <si>
+    <t>월,5,(,수,5,,,6,,,7,,,8,)</t>
+  </si>
+  <si>
+    <t>월,5,(,목,5,,,6,,,7,,,8,)</t>
+  </si>
+  <si>
+    <t>화,2,,,3,,,목,7,(,목,8,)</t>
+  </si>
+  <si>
+    <t>수,1,,,2,,,3,(,월,5,)</t>
+  </si>
+  <si>
+    <t>화,1,,,목,1,,,2</t>
+  </si>
+  <si>
+    <t>화,3,(,월,5,,,6,,,7,,,8,)</t>
+  </si>
+  <si>
+    <t>화,3,(,월,9,,,1,0,,,1,1,,,1,2,)</t>
+  </si>
+  <si>
+    <t>월,3,,,4,,,수,5</t>
+  </si>
+  <si>
+    <t>수,6,,,목,5,,,6,(,화,1,0,)</t>
+  </si>
+  <si>
+    <t>월,3,,,4,,,화,6,(,화,9,)</t>
+  </si>
+  <si>
+    <t>월,5,,,6,,,화,1,(,월,9,)</t>
+  </si>
+  <si>
+    <t>화,5,,,수,4,,,5,(,수,8,)</t>
+  </si>
+  <si>
+    <t>월,3,,,4,,,수,6</t>
+  </si>
+  <si>
+    <t>월,2,,,목,7,,,8</t>
+  </si>
+  <si>
+    <t>화,7,,,8,/,목,6</t>
+  </si>
+  <si>
+    <t>화,4,,,목,1,,,2</t>
+  </si>
+  <si>
+    <t>화,3,,,목,3,,,4</t>
+  </si>
+  <si>
+    <t>월,8,,,수,2,,,3</t>
+  </si>
+  <si>
+    <t>금,6,(,금,7,,,8,,,9,,,1,0,)</t>
+  </si>
+  <si>
+    <t>화,9,,,1,0,,,1,1</t>
+  </si>
+  <si>
+    <t>화,4,(,화,5,,,6,,,7,,,8,)</t>
+  </si>
+  <si>
+    <t>월,6,/,화,6,,,7,(,월,4,)</t>
+  </si>
+  <si>
+    <t>화,1,,,2,,,목,3,(,목,4,)</t>
+  </si>
+  <si>
+    <t>월,1,,,수,2,,,3</t>
+  </si>
+  <si>
+    <t>월,2,,,3,,,수,3</t>
+  </si>
+  <si>
+    <t>화,6,,,7,/,목,1</t>
+  </si>
+  <si>
+    <t>화,7,/,수,6,,,7,(,수,8,)</t>
+  </si>
+  <si>
+    <t>화,7,,,8,,,수,1</t>
+  </si>
+  <si>
+    <t>화,2,,,3,,,수,3</t>
+  </si>
+  <si>
+    <t>화,5,,,6,,,수,4</t>
+  </si>
+  <si>
+    <t>월,6,,,7,,,8,(,월,9,)</t>
+  </si>
+  <si>
+    <t>화,1,,,목,2,,,3</t>
+  </si>
+  <si>
+    <t>월,6,,,7,,,수,3</t>
+  </si>
+  <si>
+    <t>월,2,,,3,,,수,2,(,월,5,)</t>
+  </si>
+  <si>
+    <t>화,2,,,3,(,화,4,,,목,1,)</t>
+  </si>
+  <si>
+    <t>화,2,,,3,,,수,5</t>
+  </si>
+  <si>
+    <t>화,8,,,목,2,,,3</t>
+  </si>
+  <si>
+    <t>월,5,,,6,,,목,1</t>
+  </si>
+  <si>
+    <t>월,1,,,2,,,수,5</t>
+  </si>
+  <si>
+    <t>화,1,,,수,1,,,2</t>
+  </si>
+  <si>
+    <t>화,6,,,수,6,,,7</t>
+  </si>
+  <si>
+    <t>금,9,,,1,0,,,1,1,,,1,2,,,1,3,,,1,4</t>
+  </si>
+  <si>
+    <t>월,7,,,8,,,화,6</t>
+  </si>
+  <si>
+    <t>수,7,,,8,(,목,1,0,,,1,1,)</t>
+  </si>
+  <si>
+    <t>화,7,,,8,,,수,6</t>
+  </si>
+  <si>
+    <t>월,1,,,2,,,화,1</t>
+  </si>
+  <si>
+    <t>화,2,,,3,,,목,6</t>
+  </si>
+  <si>
+    <t>월,3,,,화,2,,,3</t>
+  </si>
+  <si>
+    <t>수,2,,,3,,,목,6</t>
+  </si>
+  <si>
+    <t>목,1,,,2,,,3,,,1,1,,,1,2,,,1,3</t>
+  </si>
+  <si>
+    <t>수,1,,,2,,,3,,,1,1,,,1,2,,,1,3</t>
+  </si>
+  <si>
+    <t>화,1,,,2,,,3,,,1,1,,,1,2,,,1,3</t>
+  </si>
+  <si>
+    <t>수,8,,,9,,,목,3,,,4</t>
+  </si>
+  <si>
+    <t>월,8,,,9,/,수,7</t>
+  </si>
+  <si>
+    <t>수,7,,,8,,,9</t>
+  </si>
+  <si>
+    <t>화,2,/,목,2,,,3</t>
+  </si>
+  <si>
+    <t>화,6,,,목,6,,,7</t>
+  </si>
+  <si>
+    <t>화,3,,,4,,,금,3,,,4</t>
+  </si>
+  <si>
+    <t>월,5,,,수,6,,,7</t>
+  </si>
+  <si>
+    <t>월,6,,,7,/,수,6</t>
+  </si>
+  <si>
+    <t>화,3,,,4,/,수,6</t>
+  </si>
+  <si>
+    <t>월,9,/,화,5,,,6</t>
+  </si>
+  <si>
+    <t>월,6,,,7,/,토,2</t>
+  </si>
+  <si>
+    <t>월,6,,,7,,,수,1</t>
+  </si>
+  <si>
+    <t>목,1,,,2,/,토,3</t>
+  </si>
+  <si>
+    <t>화,2,,,3,/,토,6</t>
+  </si>
+  <si>
+    <t>화,7,,,수,3,,,4</t>
+  </si>
+  <si>
+    <t>월,1,0,,,1,1,,,1,2</t>
+  </si>
+  <si>
+    <t>화,8,,,9,,,금,8,,,9</t>
+  </si>
+  <si>
+    <t>수,8,,,목,7,,,8</t>
+  </si>
+  <si>
+    <t>화,4,,,5,/,목,4</t>
+  </si>
+  <si>
+    <t>수,2,,,3,/,토,7</t>
+  </si>
+  <si>
+    <t>화,2,,,3,,,수,7</t>
+  </si>
+  <si>
+    <t>목,1,0,,,1,1,,,1,2</t>
+  </si>
+  <si>
+    <t>수,3,/,토,4,,,5</t>
+  </si>
+  <si>
+    <t>월,3,,,수,2,,,3</t>
+  </si>
+  <si>
+    <t>화,8,,,9,,,수,8</t>
+  </si>
+  <si>
+    <t>화,6,,,7,/,수,7</t>
+  </si>
+  <si>
+    <t>화,6,,,7,,,목,5</t>
+  </si>
+  <si>
+    <t>월,7,,,8,,,수,6</t>
+  </si>
+  <si>
+    <t>월,5,,,6,/,토,8</t>
+  </si>
+  <si>
+    <t>월,2,,,3,,,화,1</t>
+  </si>
+  <si>
+    <t>월,7,,,8,/,토,1</t>
+  </si>
+  <si>
+    <t>월,6,,,7,,,수,8</t>
+  </si>
+  <si>
+    <t>월,7,,,8,,,수,5</t>
+  </si>
+  <si>
+    <t>월,2,,,3,,,수,2</t>
+  </si>
+  <si>
+    <t>수,5,,,6,,,목,3</t>
+  </si>
+  <si>
+    <t>월,7,/,화,5,,,6</t>
+  </si>
+  <si>
+    <t>월,6,/,화,7,,,8</t>
+  </si>
+  <si>
+    <t>금,8,,,9,,,1,0</t>
+  </si>
+  <si>
+    <t>월,1,1,,,목,1,,,2</t>
+  </si>
+  <si>
+    <t>수,6,,,7,,,목,3</t>
+  </si>
+  <si>
+    <t>화,3,/,수,3,,,4</t>
+  </si>
+  <si>
+    <t>화,6,,,7,,,수,3</t>
+  </si>
+  <si>
+    <t>화,5,,,6,/,목,5</t>
+  </si>
+  <si>
+    <t>월,1,,,2,,,수,2</t>
+  </si>
+  <si>
+    <t>월,7,,,8,,,9</t>
+  </si>
+  <si>
+    <t>화,6,,,7,,,수,8</t>
+  </si>
+  <si>
+    <t>화,8,/,목,2,,,3</t>
+  </si>
+  <si>
+    <t>화,6,,,수,5,,,6</t>
+  </si>
+  <si>
+    <t>월,5,,,6,,,수,4</t>
+  </si>
+  <si>
+    <t>월,7,,,8,,,수,7</t>
+  </si>
+  <si>
+    <t>월,9,,,1,0,,,수,8</t>
+  </si>
+  <si>
+    <t>화,7,,,8,,,수,9</t>
+  </si>
+  <si>
+    <t>월,6,,,7,,,화,1</t>
+  </si>
+  <si>
+    <t>월,2,,,3,,,9</t>
+  </si>
+  <si>
+    <t>월,5,,,화,9,,,1,0</t>
+  </si>
+  <si>
+    <t>화,5,,,6,,,목,5</t>
+  </si>
+  <si>
+    <t>목,8,,,9,(,금,2,,,3,)</t>
+  </si>
+  <si>
+    <t>화,5,,,수,1,,,2</t>
+  </si>
+  <si>
+    <t>수,5,,,목,2,,,3</t>
+  </si>
+  <si>
+    <t>토,0,,,1,,,2,,,3,,,4,,,5</t>
+  </si>
+  <si>
+    <t>토,6,,,7,,,8,,,9,,,1,0,,,1,1</t>
+  </si>
+  <si>
+    <t>화,5,,,6,,,수,2</t>
+  </si>
+  <si>
+    <t>화,5,,,6,(,화,7,,,8,)</t>
+  </si>
+  <si>
+    <t>화,1,,,2,,,4</t>
+  </si>
+  <si>
+    <t>수,1,,,2,,,4</t>
+  </si>
+  <si>
+    <t>수,1,0,,,1,1,,,1,2</t>
+  </si>
+  <si>
+    <t>월,5,,,6,,,수,2,(,수,3,)</t>
+  </si>
+  <si>
+    <t>화,2,,,목,2,,,3,(,화,3,)</t>
+  </si>
+  <si>
+    <t>수,5,,,6,(,목,8,,,9,)</t>
+  </si>
+  <si>
+    <t>수,7,,,8,(,수,9,,,1,0,)</t>
+  </si>
+  <si>
+    <t>화,7,,,8,,,목,5,(,목,6,)</t>
+  </si>
+  <si>
+    <t>화,5,,,6,(,목,7,,,8,)</t>
+  </si>
+  <si>
+    <t>월,7,,,8,/,수,1</t>
+  </si>
+  <si>
+    <t>토,1,(,토,2,,,3,,,4,,,5,)</t>
+  </si>
+  <si>
+    <t>목,2,,,3,(,목,4,,,5,)</t>
+  </si>
+  <si>
+    <t>월,3,,,화,6,,,수,1,(,화,7,)</t>
+  </si>
+  <si>
+    <t>목,6,,,7,(,목,8,,,9,)</t>
+  </si>
+  <si>
+    <t>월,7,(,화,1,,,2,,,3,,,4,)</t>
+  </si>
+  <si>
+    <t>월,3,,,4,,,화,6</t>
+  </si>
+  <si>
+    <t>화,1,,,2,,,수,7</t>
+  </si>
+  <si>
+    <t>수,3,,,목,2,,,3</t>
+  </si>
+  <si>
+    <t>화,8,(,금,7,,,8,,,9,,,1,0,)</t>
+  </si>
+  <si>
+    <t>월,9,,,1,0,,,1,1</t>
+  </si>
+  <si>
+    <t>수,1,,,2,,,목,3</t>
+  </si>
+  <si>
+    <t>화,1,,,2,,,목,1,(,목,2,)</t>
+  </si>
+  <si>
+    <t>수,1,0,(,수,1,1,,,목,9,,,1,0,,,1,1,)</t>
+  </si>
+  <si>
+    <t>화,5,,,목,5,,,6</t>
+  </si>
+  <si>
+    <t>월,3,,,수,3,,,4,(,월,4,)</t>
+  </si>
+  <si>
+    <t>화,7,,,8,,,9,(,수,7,)</t>
+  </si>
+  <si>
+    <t>월,1,,,2,,,수,2,(,수,3,)</t>
+  </si>
+  <si>
+    <t>월,6,,,7,,,수,5,(,수,6,)</t>
+  </si>
+  <si>
+    <t>목,5,,,6,,,7,(,목,8,)</t>
+  </si>
+  <si>
+    <t>금,6,,,7,,,8,(,금,9,)</t>
+  </si>
+  <si>
+    <t>화,9,(,금,1,,,2,,,3,,,4,)</t>
+  </si>
+  <si>
+    <t>월,1,,,2,,,수,1,(,수,2,)</t>
+  </si>
+  <si>
+    <t>월,5,,,6,,,수,5,(,수,6,)</t>
+  </si>
+  <si>
+    <t>수,4,,,목,5,,,6</t>
+  </si>
+  <si>
+    <t>수,7,(,수,8,,,9,,,1,0,,,1,1,)</t>
+  </si>
+  <si>
+    <t>목,5,(,목,6,,,7,,,8,,,9,)</t>
+  </si>
+  <si>
+    <t>금,5,/,금,6,,,7,,,8,,,9</t>
+  </si>
+  <si>
+    <t>화,5,(,월,1,,,2,,,3,,,4,)</t>
+  </si>
+  <si>
+    <t>수,6,(,목,7,,,8,,,9,,,1,0,)</t>
+  </si>
+  <si>
+    <t>월,6,,,7,/,화,0</t>
+  </si>
+  <si>
+    <t>화,8,,,9,/,수,8</t>
+  </si>
+  <si>
+    <t>월,8,,,화,2,,,3,(,화,4,)</t>
+  </si>
+  <si>
+    <t>목,2,,,금,2,,,3,(,목,1,)</t>
+  </si>
+  <si>
+    <t>수,5,,,목,3,,,4</t>
+  </si>
+  <si>
+    <t>토,1,,,2,,,3</t>
+  </si>
+  <si>
+    <t>월,2,,,3,,,수,3,(,수,4,)</t>
+  </si>
+  <si>
+    <t>월,8,,,9,,,수,2</t>
+  </si>
+  <si>
+    <t>수,7,,,목,5,,,6</t>
+  </si>
+  <si>
+    <t>월,7,/,화,6,,,7,(,화,8,)</t>
+  </si>
+  <si>
+    <t>화,5,,,수,5,,,6</t>
+  </si>
+  <si>
+    <t>목,1,3,,,1,4,,,1,5</t>
+  </si>
+  <si>
+    <t>화,1,3,,,1,4,,,1,5</t>
+  </si>
+  <si>
+    <t>화,1,0,,,1,1,,,1,2</t>
+  </si>
+  <si>
+    <t>월,4,,,5,,,화,4</t>
+  </si>
+  <si>
+    <t>화,2,,,3,/,수,5</t>
+  </si>
+  <si>
+    <t>월,2,,,화,2,,,3</t>
+  </si>
+  <si>
+    <t>월,6,,,7,,,화,8</t>
+  </si>
+  <si>
+    <t>월,5,,,화,6,,,7</t>
+  </si>
+  <si>
+    <t>수,6,,,7,,,목,5</t>
+  </si>
+  <si>
+    <t>수,5,,,목,6,,,7</t>
+  </si>
+  <si>
+    <t>월,6,,,7,,,8,,,화,6,,,7,,,8</t>
+  </si>
+  <si>
+    <t>월,8,,,9,,,화,7</t>
+  </si>
+  <si>
+    <t>월,1,/,월,2,,,3</t>
+  </si>
+  <si>
+    <t>화,1,/,화,2,,,3</t>
+  </si>
+  <si>
+    <t>월,2,,,3,,,화,5</t>
+  </si>
+  <si>
+    <t>화,5,,,6,,,수,1</t>
+  </si>
+  <si>
+    <t>목,1,,,2,,,3,,,4</t>
+  </si>
+  <si>
+    <t>화,5,,,목,7,,,8</t>
+  </si>
+  <si>
+    <t>수,5,,,6,,,금,2</t>
+  </si>
+  <si>
+    <t>수,7,,,8,,,금,1</t>
+  </si>
+  <si>
+    <t>월,3,,,4,,,목,1,(,목,2,)</t>
+  </si>
+  <si>
+    <t>월,1,,,2,,,금,1,(,금,2,)</t>
+  </si>
+  <si>
+    <t>수,1,,,2,,,금,7,(,금,8,)</t>
+  </si>
+  <si>
+    <t>화,5,,,6,,,수,7,(,수,8,)</t>
+  </si>
+  <si>
+    <t>화,5,,,6,,,목,9,(,목,1,0,)</t>
+  </si>
+  <si>
+    <t>화,3,,,4,,,수,5,(,수,6,)</t>
+  </si>
+  <si>
+    <t>월,3,,,4,,,목,3,(,목,4,)</t>
+  </si>
+  <si>
+    <t>수,5,,,목,5,,,6,(,수,6,)</t>
+  </si>
+  <si>
+    <t>월,1,,,2,,,화,1,(,화,2,)</t>
+  </si>
+  <si>
+    <t>월,5,,,6,,,화,5,(,화,6,)</t>
+  </si>
+  <si>
+    <t>화,3,,,4,,,목,1,(,목,2,)</t>
+  </si>
+  <si>
+    <t>화,5,,,수,3,,,4,(,화,6,)</t>
+  </si>
+  <si>
+    <t>화,1,,,2,,,수,7,(,수,8,)</t>
+  </si>
+  <si>
+    <t>화,7,,,목,5,,,6,(,화,8,)</t>
+  </si>
+  <si>
+    <t>월,5,,,6,,,목,7,(,목,8,)</t>
+  </si>
+  <si>
+    <t>화,3,,,4,,,목,3,(,목,4,)</t>
+  </si>
+  <si>
+    <t>월,6,,,7,,,화,3,(,화,4,)</t>
+  </si>
+  <si>
+    <t>월,8,,,9,,,목,5</t>
+  </si>
+  <si>
+    <t>화,1,,,2,,,수,1</t>
+  </si>
+  <si>
+    <t>월,2,,,3,,,수,6</t>
+  </si>
+  <si>
+    <t>수,7,,,목,6,,,7,(,수,8,)</t>
+  </si>
+  <si>
+    <t>월,3,,,화,3,,,4,(,월,4,)</t>
+  </si>
+  <si>
+    <t>월,7,,,8,,,화,7,(,화,8,)</t>
+  </si>
+  <si>
+    <t>월,1,,,2,/,화,0,(,화,2,)</t>
+  </si>
+  <si>
+    <t>월,2,/,화,2,,,3,(,화,4,)</t>
+  </si>
+  <si>
+    <t>화,1,,,금,1,,,2,(,금,3,)</t>
+  </si>
+  <si>
+    <t>화,5,,,6,/,목,1</t>
+  </si>
+  <si>
+    <t>월,6,/,화,7,,,8,(,월,5,)</t>
+  </si>
+  <si>
+    <t>월,8,,,9,/,수,8</t>
+  </si>
+  <si>
+    <t>화,2,,,3,,,목,9</t>
+  </si>
+  <si>
+    <t>월,5,,,수,5,,,6</t>
+  </si>
+  <si>
+    <t>월,2,,,3,,,화,9</t>
+  </si>
+  <si>
+    <t>월,2,,,3,,,목,5</t>
+  </si>
+  <si>
+    <t>월,1,,,2,,,3,,,1,1,,,1,2,,,1,3</t>
+  </si>
+  <si>
+    <t>금,6,,,7,/,토,0</t>
+  </si>
+  <si>
+    <t>월,0,/,목,6,,,7</t>
+  </si>
+  <si>
+    <t>월,-,1,/,목,3,,,4</t>
+  </si>
+  <si>
+    <t>금,3,,,4,/,토,-,1</t>
+  </si>
+  <si>
+    <t>월,3,,,4,,,목,3</t>
+  </si>
+  <si>
+    <t>월,7,,,8,,,화,5</t>
+  </si>
+  <si>
+    <t>월,3,,,4,(,화,5,,,6,)</t>
+  </si>
+  <si>
+    <t>화,5,,,6,(,목,1,,,2,)</t>
+  </si>
+  <si>
+    <t>화,5,,,6,(,목,3,,,4,)</t>
+  </si>
+  <si>
+    <t>월,5,,,6,,,수,1</t>
+  </si>
+  <si>
+    <t>화,5,,,6,,,수,4,/,수,4</t>
+  </si>
+  <si>
+    <t>화,7,,,8,,,목,3</t>
+  </si>
+  <si>
+    <t>수,5,,,6,,,금,1</t>
+  </si>
+  <si>
+    <t>화,1,,,2,,,목,2</t>
+  </si>
+  <si>
+    <t>화,3,,,4,/,목,3</t>
+  </si>
+  <si>
+    <t>화,1,,,2,(,금,3,,,4,)</t>
+  </si>
+  <si>
+    <t>월,3,,,4,(,수,7,,,8,)</t>
+  </si>
+  <si>
+    <t>월,1,,,2,(,화,7,,,8,)</t>
+  </si>
+  <si>
+    <t>목,1,,,2,,,금,1</t>
+  </si>
+  <si>
+    <t>수,3,,,4,,,금,4</t>
+  </si>
+  <si>
+    <t>월,1,,,2,,,목,3</t>
+  </si>
+  <si>
+    <t>월,1,,,2,,,수,1</t>
+  </si>
+  <si>
+    <t>월,7,,,8,,,수,7,(,수,8,)</t>
+  </si>
+  <si>
+    <t>월,7,,,8,(,목,7,,,8,)</t>
+  </si>
+  <si>
+    <t>목,7,,,8,(,월,5,,,6,)</t>
+  </si>
+  <si>
+    <t>화,1,,,2,(,수,7,,,8,)</t>
+  </si>
+  <si>
+    <t>화,1,,,2,(,수,3,,,4,)</t>
+  </si>
+  <si>
+    <t>목,3,/,목,4,(,금,1,,,2,)</t>
+  </si>
+  <si>
+    <t>화,7,/,화,8,(,금,3,,,4,)</t>
+  </si>
+  <si>
+    <t>화,5,,,6,,,목,6</t>
+  </si>
+  <si>
+    <t>화,7,,,8,,,목,3,(,목,4,)</t>
+  </si>
+  <si>
+    <t>월,7,,,8,(,금,3,,,4,)</t>
+  </si>
+  <si>
+    <t>수,3,,,4,(,월,5,,,6,)</t>
+  </si>
+  <si>
+    <t>목,7,,,8,(,수,7,,,8,)</t>
+  </si>
+  <si>
+    <t>월,5,,,화,5,,,6,(,월,6,)</t>
+  </si>
+  <si>
+    <t>수,7,,,8,(,목,7,,,8,)</t>
+  </si>
+  <si>
+    <t>화,7,,,8,(,수,5,,,6,)</t>
+  </si>
+  <si>
+    <t>월,1,,,2,(,화,1,,,2,)</t>
+  </si>
+  <si>
+    <t>화,7,,,8,,,목,2,(,목,1,)</t>
+  </si>
+  <si>
+    <t>월,5,,,6,(,수,3,,,4,)</t>
+  </si>
+  <si>
+    <t>목,5,,,6,(,월,1,,,2,)</t>
+  </si>
+  <si>
+    <t>목,3,,,4,,,금,2</t>
+  </si>
+  <si>
+    <t>월,7,,,8,,,수,3,(,수,4,)</t>
+  </si>
+  <si>
+    <t>월,5,,,6,(,화,1,,,2,)</t>
+  </si>
+  <si>
+    <t>화,7,,,8,(,목,1,,,2,)</t>
+  </si>
+  <si>
+    <t>수,5,,,6,(,목,5,,,6,)</t>
+  </si>
+  <si>
+    <t>수,7,,,8,(,화,3,,,4,)</t>
+  </si>
+  <si>
+    <t>금,5,,,6,,,7,(,금,8,)</t>
+  </si>
+  <si>
+    <t>금,1,,,2,,,3,(,금,4,)</t>
+  </si>
+  <si>
+    <t>수,8,,,금,1,,,2,(,수,7,)</t>
+  </si>
+  <si>
+    <t>수,5,,,금,3,,,4,(,수,6,)</t>
+  </si>
+  <si>
+    <t>화,5,,,6,,,목,7,(,목,8,)</t>
+  </si>
+  <si>
+    <t>수,5,,,6,(,목,3,,,4,)</t>
+  </si>
+  <si>
+    <t>수,7,,,8,(,화,1,,,2,)</t>
+  </si>
+  <si>
+    <t>화,1,,,2,(,목,1,,,2,)</t>
+  </si>
+  <si>
+    <t>화,3,,,4,(,목,3,,,4,)</t>
+  </si>
+  <si>
+    <t>월,1,,,2,(,수,1,,,2,)</t>
+  </si>
+  <si>
+    <t>수,3,,,4,(,월,3,,,4,)</t>
+  </si>
+  <si>
+    <t>화,3,,,목,2,,,3,(,목,1,)</t>
+  </si>
+  <si>
+    <t>월,3,,,4,,,수,3</t>
+  </si>
+  <si>
+    <t>월,5,,,6,,,수,3</t>
+  </si>
+  <si>
+    <t>화,3,,,목,7,,,8,(,화,4,)</t>
+  </si>
+  <si>
+    <t>목,1,,,2,(,금,1,,,2,)</t>
+  </si>
+  <si>
+    <t>수,7,,,8,(,목,3,,,4,)</t>
+  </si>
+  <si>
+    <t>월,7,,,8,(,화,5,,,6,)</t>
+  </si>
+  <si>
+    <t>화,3,,,4,(,금,5,,,6,)</t>
+  </si>
+  <si>
+    <t>화,3,/,화,4,(,월,7,,,8,)</t>
+  </si>
+  <si>
+    <t>화,1,,,2,(,금,1,,,2,)</t>
+  </si>
+  <si>
+    <t>목,3,,,4,(,수,5,,,6,)</t>
+  </si>
+  <si>
+    <t>수,1,,,2,(,월,7,,,8,)</t>
+  </si>
+  <si>
+    <t>수,7,,,8,(,월,1,,,2,)</t>
+  </si>
+  <si>
+    <t>화,3,,,4,(,수,1,,,2,)</t>
+  </si>
+  <si>
+    <t>월,3,/,월,4,(,화,7,,,8,)</t>
+  </si>
+  <si>
+    <t>목,5,,,6,(,수,1,,,2,)</t>
+  </si>
+  <si>
+    <t>화,3,,,4,(,월,3,,,4,)</t>
+  </si>
+  <si>
+    <t>월,3,,,4,,,수,1</t>
+  </si>
+  <si>
+    <t>수,7,,,8,(,화,7,,,8,)</t>
+  </si>
+  <si>
+    <t>화,8,,,9,,,1,0</t>
+  </si>
+  <si>
+    <t>화,5,,,6,(,금,1,,,2,)</t>
+  </si>
+  <si>
+    <t>월,3,,,4,,,목,2</t>
+  </si>
+  <si>
+    <t>월,7,,,8,(,금,7,,,8,)</t>
+  </si>
+  <si>
+    <t>월,5,,,6,,,화,9</t>
+  </si>
+  <si>
+    <t>화,1,,,2,,,3,,,4,/,화,1,,,2,,,3,,,4</t>
+  </si>
+  <si>
+    <t>월,5,,,6,,,7,,,8,/,월,5,,,6,,,7,,,8</t>
+  </si>
+  <si>
+    <t>목,3,,,4,/,목,5,,,6</t>
+  </si>
+  <si>
+    <t>월,7,,,화,1,,,2,(,월,8,)</t>
+  </si>
+  <si>
+    <t>화,5,/,수,2,,,3</t>
+  </si>
+  <si>
+    <t>월,1,,,2,/,수,2</t>
+  </si>
+  <si>
+    <t>화,1,,,2,(,화,3,,,4,(,화,3,,,4,(,화,6,,,7,,,8,,,9,,,1,0,)</t>
+  </si>
+  <si>
+    <t>금,1,,,2,,,3,,,4,/,금,5,,,6,,,7,,,8</t>
+  </si>
+  <si>
+    <t>월,1,,,2,,,목,1,,,2</t>
+  </si>
+  <si>
+    <t>화,1,,,2,,,3,,,4,,,5,,,6,,,7,,,8,,,수,1,,,2,,,3</t>
   </si>
   <si>
     <t>실시간온라인(미래)</t>
@@ -12493,10 +12493,10 @@
     <t>백529(백327)</t>
   </si>
   <si>
-    <t>백121(의전1034)</t>
-  </si>
-  <si>
-    <t>백121/의전1034</t>
+    <t>백121(의전103,104)</t>
+  </si>
+  <si>
+    <t>백121/의전103,104</t>
   </si>
   <si>
     <t>백121(백529)</t>
